--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2188482.884804273</v>
+        <v>2292662.519255342</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9494965.654370341</v>
+        <v>9494965.654370345</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>145.9897563288632</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>223.6073936510867</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>88.63059333846296</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>216.2522586711241</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>21.27902055891022</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>246.9260235134425</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851184</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.497062441472158</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.13884651711819</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>108.5262022477612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>194.5727296124813</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.7694989616254383</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>208.3089209476142</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1424,10 +1426,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>225.8471109562078</v>
+        <v>254.2662598081697</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>54.63637568893085</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465744</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>143.2091541404069</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2011,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V19" t="n">
-        <v>206.1466683956862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>100.2207207382361</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2292,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>225.6414338000054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.2919725119091</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>55.52079624060555</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>25.78734729249861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699965</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>82.73433514019987</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>142.3575218158243</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890406</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>58.47559664514451</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>149.2351784782017</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>49.33106662725105</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>18.50276072357119</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>44.75138076689395</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.42659968729146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>247.8166099773759</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.09759726723</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2718.633196935045</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.4802848832071</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C4" t="n">
-        <v>403.4802848832071</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D4" t="n">
-        <v>253.3636454708714</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
         <v>163.8377936138381</v>
@@ -4483,10 +4485,10 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4497,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>612.6199236553855</v>
       </c>
       <c r="W4" t="n">
-        <v>631.4698357812244</v>
+        <v>612.6199236553855</v>
       </c>
       <c r="X4" t="n">
-        <v>403.4802848832071</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y4" t="n">
-        <v>403.4802848832071</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.433183287318</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4570,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2759.917179749334</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2759.917179749334</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2407.14852447922</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2033.68276621814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>1643.543434242328</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.70869461456</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080136</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>223.643323038294</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C7" t="n">
-        <v>223.643323038294</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>223.643323038294</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>223.643323038294</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>76.75337554038362</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V7" t="n">
-        <v>444.4359021818241</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W7" t="n">
-        <v>444.4359021818241</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="X7" t="n">
-        <v>444.4359021818241</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.643323038294</v>
+        <v>342.3669689068684</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.418012197378</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.455495256966</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1044.189796650216</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
         <v>934.5673701373257</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.0178522615</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,7 +4901,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757121</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757121</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757121</v>
+        <v>638.5933927241304</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9536817013557</v>
+        <v>638.5933927241304</v>
       </c>
       <c r="V10" t="n">
-        <v>541.9536817013557</v>
+        <v>638.5933927241304</v>
       </c>
       <c r="W10" t="n">
-        <v>331.5406302391191</v>
+        <v>638.5933927241304</v>
       </c>
       <c r="X10" t="n">
-        <v>331.5406302391191</v>
+        <v>638.5933927241304</v>
       </c>
       <c r="Y10" t="n">
-        <v>331.5406302391191</v>
+        <v>638.5933927241304</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.378389352846</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.693901146959</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1272.276731109998</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>1044.287180211981</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>823.4946010684509</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>984.9192356072721</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356247</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.614337923289</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>483.6514929544277</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>336.7615454565173</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5940,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>3007.624207651098</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>2838.688024723192</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>2688.571385310856</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>2540.658291728463</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>2393.768344230552</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>2393.768344230552</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>3189.272672481338</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3052.75892420402</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>3026.711098656041</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.594459243706</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>3455.19996817779</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>3234.40738903426</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2113.492509992416</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6707,7 +6709,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,13 +6718,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722981</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,49 +6928,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2387.896824342741</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2205.041989997645</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1985.440525020586</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.365298364784</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1441.680810158897</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1152.263640121936</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X37" t="n">
-        <v>1152.263640121936</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y37" t="n">
-        <v>931.4710609784063</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615669</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334542</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667835</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.01152569472</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740628</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913449</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>2381.235169913449</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>2381.235169913449</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>2854.440648734751</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>3482.038612289358</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961266</v>
+        <v>4033.948342528645</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023713</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301209</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022983</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566168</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334425</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606223</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400691</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635737</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>924.6979859831846</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C40" t="n">
-        <v>755.7618030552777</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>605.645163642942</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>457.7320700605488</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>310.8421225626385</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>143.6460232775184</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X40" t="n">
-        <v>1327.139029956954</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y40" t="n">
-        <v>1106.346450813424</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.9324428257312</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2401.759668664206</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>887.5809076559709</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3482.038612289356</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.18697620015</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1539.502487994263</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1250.085317957303</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -10364,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-5.554180282239484e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>60.33736343303636</v>
+        <v>31.91821458107449</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>112.610445409697</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V19" t="n">
-        <v>45.99097492814181</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.30341755403279</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>60.88156453658561</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.54000767002822</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>84.77391660561831</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>141.4594738061292</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>213.9188905722445</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>134.6711151870884</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25081,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>144.1654765207667</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.899650064977173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>137.2878198583893</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>90.96364621897283</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>268.0202376130198</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>136.2749052347506</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.36786441186825</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675048</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675039</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675046</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186729</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26445,10 +26447,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
+        <v>14826.69604186726</v>
+      </c>
+      <c r="M4" t="n">
         <v>14826.69604186732</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.102994826</v>
+        <v>-914494.1029948262</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327665</v>
+        <v>414250.6427327659</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327673</v>
+        <v>414250.6427327663</v>
       </c>
       <c r="E6" t="n">
-        <v>163998.2620943742</v>
+        <v>163998.2620943745</v>
       </c>
       <c r="F6" t="n">
         <v>489410.72390173</v>
       </c>
       <c r="G6" t="n">
-        <v>489410.7239017301</v>
+        <v>489410.72390173</v>
       </c>
       <c r="H6" t="n">
-        <v>489410.7239017304</v>
+        <v>489410.7239017295</v>
       </c>
       <c r="I6" t="n">
-        <v>489410.7239017297</v>
+        <v>489410.7239017293</v>
       </c>
       <c r="J6" t="n">
         <v>271879.5215044526</v>
       </c>
       <c r="K6" t="n">
-        <v>489410.72390173</v>
+        <v>489410.7239017299</v>
       </c>
       <c r="L6" t="n">
-        <v>489410.7239017298</v>
+        <v>489410.7239017301</v>
       </c>
       <c r="M6" t="n">
-        <v>404355.695966218</v>
+        <v>404355.6959662177</v>
       </c>
       <c r="N6" t="n">
-        <v>489410.7239017299</v>
+        <v>489410.7239017297</v>
       </c>
       <c r="O6" t="n">
-        <v>489410.7239017299</v>
+        <v>489410.7239017297</v>
       </c>
       <c r="P6" t="n">
-        <v>489410.7239017298</v>
+        <v>489410.7239017301</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>203.2512123885498</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>162.6305450049669</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>57.80336930810621</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>35.88538465270389</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>343.9938712120974</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>4.06914844545949</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>170.3349177404651</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>155.88696174191</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>273.4041678245006</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>175.1583710659877</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>218.7794503145438</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>78.21407738897679</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28147,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.255829882164973e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28491,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-5.242948227244178e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,22 +31837,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>460.9249101897659</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31862,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32242,7 +32244,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>272.9327299394441</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32485,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32549,25 +32551,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>277.2922978908106</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>305.187676947251</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M33" t="n">
-        <v>281.0363767960754</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647483</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>200.4500263280939</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>522.1224556861836</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532619</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>322.3705304098917</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,25 +36199,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>134.6960534463662</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>167.346237972892</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M33" t="n">
-        <v>138.902342874057</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316661</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>477.98533214273</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>66.47561891376371</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312436</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2292662.519255342</v>
+        <v>2288649.90924135</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>188.9524625330061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.6073936510867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>216.2522586711241</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>2.650150584780143</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>251.2852794514166</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>246.9260235134425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883163</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -992,7 +992,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
         <v>18.8172186824774</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.497062441472158</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.89137924168479</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>40.1274131216466</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>194.5727296124813</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>93.35882079148004</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7694989616254383</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>254.2662598081697</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>54.63637568893085</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465744</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>100.2207207382361</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>55.52079624060555</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>72.26558381699965</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.08971311158757</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>186.0435781263486</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>142.3575218158243</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890406</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>149.2351784782017</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>18.50276072357119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>44.75138076689395</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>20.43112068613158</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.62132134232</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4433,16 +4433,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4454,7 +4454,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="V4" t="n">
-        <v>612.6199236553855</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="W4" t="n">
-        <v>612.6199236553855</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="X4" t="n">
-        <v>384.6303727573681</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1844.338003964588</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1117.109788417426</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>731.3215358191815</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>320.3356310295739</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>2759.917179749334</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V5" t="n">
-        <v>2759.917179749334</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2407.14852447922</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X5" t="n">
-        <v>2033.68276621814</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1643.543434242328</v>
+        <v>2230.93784402871</v>
       </c>
     </row>
     <row r="6">
@@ -4625,25 +4625,25 @@
         <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
@@ -4652,10 +4652,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.773976541745</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>746.3177816649207</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>524.5511662344468</v>
       </c>
       <c r="U7" t="n">
-        <v>631.784138943829</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="V7" t="n">
-        <v>631.784138943829</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="W7" t="n">
-        <v>342.3669689068684</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="X7" t="n">
-        <v>342.3669689068684</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.3669689068684</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>125.0224038229021</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>118.0769030736986</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>107.0448569590992</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>107.0448569590992</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.9449278938906</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>638.5933927241304</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>638.5933927241304</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>638.5933927241304</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>638.5933927241304</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>638.5933927241304</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>638.5933927241304</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516144</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5229,22 +5229,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2123.082773965825</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.398285759938</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.9192356072721</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356247</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>779.614337923289</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
         <v>391.8463960427007</v>
@@ -5658,19 +5658,19 @@
         <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>631.5645865368208</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>483.6514929544277</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>336.7615454565173</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3007.624207651098</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>2838.688024723192</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>2688.571385310856</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>2540.658291728463</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>2393.768344230552</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2393.768344230552</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>3638.054802522885</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>3410.065251624868</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>3189.272672481338</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836018</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556949</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385794</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913449</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2381.235169913449</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2381.235169913449</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>2854.440648734751</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3482.038612289358</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4033.948342528645</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023713</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2387.388512467613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.550723916711</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888042</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2401.759668664206</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2182.158203687148</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1893.082977031346</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469508</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>493.2161050975141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-5.554180282239484e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>31.91821458107449</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>112.610445409697</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.30341755403279</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>84.77391660561831</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.52575990662478</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>66.09406519747944</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>144.1654765207667</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>268.0202376130198</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>136.2749052347506</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>146.8157004124963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982119</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982122</v>
-      </c>
       <c r="E2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405249</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405247</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405253</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="E4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186729</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26447,10 +26447,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186726</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26524,46 +26524,46 @@
         <v>-914494.1029948262</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327659</v>
+        <v>414250.6427327663</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327663</v>
+        <v>414250.6427327667</v>
       </c>
       <c r="E6" t="n">
-        <v>163998.2620943745</v>
+        <v>163650.8828400177</v>
       </c>
       <c r="F6" t="n">
-        <v>489410.72390173</v>
+        <v>489063.3446473728</v>
       </c>
       <c r="G6" t="n">
-        <v>489410.72390173</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="H6" t="n">
-        <v>489410.7239017295</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="I6" t="n">
-        <v>489410.7239017293</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="J6" t="n">
-        <v>271879.5215044526</v>
+        <v>271532.142250095</v>
       </c>
       <c r="K6" t="n">
-        <v>489410.7239017299</v>
+        <v>489063.3446473728</v>
       </c>
       <c r="L6" t="n">
-        <v>489410.7239017301</v>
+        <v>489063.3446473728</v>
       </c>
       <c r="M6" t="n">
-        <v>404355.6959662177</v>
+        <v>404008.316711861</v>
       </c>
       <c r="N6" t="n">
-        <v>489410.7239017297</v>
+        <v>489063.3446473728</v>
       </c>
       <c r="O6" t="n">
-        <v>489410.7239017297</v>
+        <v>489063.3446473728</v>
       </c>
       <c r="P6" t="n">
-        <v>489410.7239017301</v>
+        <v>489063.3446473728</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>193.7813791304744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.6305450049669</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>35.88538465270389</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>223.059504804257</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>159.6364462020369</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>4.06914844545949</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.3349177404651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>105.8776460897571</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.449516651279353</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>175.1583710659877</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>86.47315939045725</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>218.7794503145438</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551988e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.255829882164973e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.242948227244178e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>196.3041720118997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>272.9327299394441</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647483</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>57.74979223202556</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>130.3364854949997</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316661</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.98533214273</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2288649.90924135</v>
+        <v>2290410.439544134</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9494965.654370345</v>
+        <v>9494965.654370341</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.9524625330061</v>
+        <v>351.8998908890623</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -718,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851069</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>122.1695696835036</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2.650150584780143</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>251.2852794514166</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.400304892653722</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>20.75019519330557</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.89137924168479</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>40.1274131216466</v>
+        <v>40.12741312164484</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.35882079148004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386283</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>109.8058856274582</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0854776630161</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5981994227929</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>96.99837838564358</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>42.5313457611372</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>186.0435781263486</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.03470992366</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392465</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392465</v>
+        <v>2403.038273524209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445192</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>440.0982547706554</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>440.0982547706554</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="W4" t="n">
-        <v>440.0982547706554</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="X4" t="n">
-        <v>437.4213349880492</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.6287558445192</v>
+        <v>797.4834000772721</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1844.338003964588</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C5" t="n">
-        <v>1475.375487024176</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.109788417426</v>
+        <v>879.7731733615576</v>
       </c>
       <c r="E5" t="n">
-        <v>731.3215358191815</v>
+        <v>493.9849207633134</v>
       </c>
       <c r="F5" t="n">
-        <v>320.3356310295739</v>
+        <v>82.99901597370581</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>71.96696985910636</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>71.96696985910636</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609172</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.542934265601</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.077176004521</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.93784402871</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>746.3177816649207</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>524.5511662344468</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.4482993600903</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1238.038871968307</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278969</v>
+        <v>869.076355027895</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211463</v>
+        <v>510.8106564211445</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0224038229021</v>
+        <v>125.0224038229003</v>
       </c>
       <c r="F8" t="n">
-        <v>118.0769030736986</v>
+        <v>118.0769030736968</v>
       </c>
       <c r="G8" t="n">
-        <v>107.0448569590992</v>
+        <v>107.0448569590974</v>
       </c>
       <c r="H8" t="n">
-        <v>107.0448569590992</v>
+        <v>107.0448569590974</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883005</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2741.012457539434</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2388.24380226932</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2014.77804400824</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1624.638712032428</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5190,13 +5190,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,22 +5223,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
         <v>1277.309669727408</v>
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556308</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>483.8760050556308</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797186</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>73.62417772602106</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9259388694759707</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405074</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>66.09406519747944</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.327398212</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948262</v>
+        <v>-914494.1029948264</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327663</v>
+        <v>414250.6427327665</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327667</v>
+        <v>414250.642732767</v>
       </c>
       <c r="E6" t="n">
-        <v>163650.8828400177</v>
+        <v>163963.5241689387</v>
       </c>
       <c r="F6" t="n">
-        <v>489063.3446473728</v>
+        <v>489375.9859762939</v>
       </c>
       <c r="G6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.9859762938</v>
       </c>
       <c r="H6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.985976294</v>
       </c>
       <c r="I6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.9859762942</v>
       </c>
       <c r="J6" t="n">
-        <v>271532.142250095</v>
+        <v>271844.7835790164</v>
       </c>
       <c r="K6" t="n">
-        <v>489063.3446473728</v>
+        <v>489375.985976294</v>
       </c>
       <c r="L6" t="n">
-        <v>489063.3446473728</v>
+        <v>489375.9859762939</v>
       </c>
       <c r="M6" t="n">
-        <v>404008.316711861</v>
+        <v>404320.958040782</v>
       </c>
       <c r="N6" t="n">
-        <v>489063.3446473728</v>
+        <v>489375.9859762939</v>
       </c>
       <c r="O6" t="n">
-        <v>489063.3446473728</v>
+        <v>489375.9859762939</v>
       </c>
       <c r="P6" t="n">
-        <v>489063.3446473728</v>
+        <v>489375.9859762939</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.7813791304744</v>
+        <v>30.83395077441827</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>129.9680736403243</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>223.059504804257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>159.6364462020369</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>36.17662488027223</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>159.0817849886317</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>105.8776460897571</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>1.449516651279353</v>
+        <v>1.449516651281165</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.47315939045725</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.302797828232</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551988e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
